--- a/data/evaluation/evaluation_South_Autumn_Carrots.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Carrots.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3339.341414141414</v>
+        <v>3402.008080808081</v>
       </c>
       <c r="C3" t="n">
-        <v>44619069.80569329</v>
+        <v>44710563.13902663</v>
       </c>
       <c r="D3" t="n">
-        <v>6679.75072930819</v>
+        <v>6686.595781040352</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05668455881743006</v>
+        <v>0.05475024968740005</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3327.556765738074</v>
+        <v>3320.330855228592</v>
       </c>
       <c r="C4" t="n">
-        <v>43694547.94399156</v>
+        <v>43669587.71814867</v>
       </c>
       <c r="D4" t="n">
-        <v>6610.185167148615</v>
+        <v>6608.296884837172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07623036628611946</v>
+        <v>0.07675806367101667</v>
       </c>
     </row>
     <row r="5">
